--- a/results/Lx5.xlsx
+++ b/results/Lx5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sx5standings\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A3942A-0DBB-49CA-8795-D8DD9F888115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452187CC-F7C1-4593-A18F-46556A451A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="231">
   <si>
     <r>
       <rPr>
@@ -2311,6 +2311,9 @@
       </rPr>
       <t>Pos</t>
     </r>
+  </si>
+  <si>
+    <t>Gender</t>
   </si>
 </sst>
 </file>
@@ -2779,10 +2782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J110"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2799,7 +2802,7 @@
     <col min="10" max="10" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>224</v>
       </c>
@@ -2830,8 +2833,11 @@
       <c r="J1" s="11" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2861,8 +2867,12 @@
         <f>TEXT(F2,"hh:mm:ss")</f>
         <v>00:19:30</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" t="str">
+        <f>IF(LEFT(D2,1)="M","M","F")</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2892,8 +2902,12 @@
         <f t="shared" ref="J3:J66" si="0">TEXT(F3,"hh:mm:ss")</f>
         <v>00:20:04</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K66" si="1">IF(LEFT(D3,1)="M","M","F")</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2925,8 +2939,12 @@
         <f t="shared" si="0"/>
         <v>00:20:24</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2958,8 +2976,12 @@
         <f t="shared" si="0"/>
         <v>00:20:37</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2989,8 +3011,12 @@
         <f t="shared" si="0"/>
         <v>00:21:15</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -3022,8 +3048,12 @@
         <f t="shared" si="0"/>
         <v>00:21:47</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3055,8 +3085,12 @@
         <f t="shared" si="0"/>
         <v>00:21:50</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3086,8 +3120,12 @@
         <f t="shared" si="0"/>
         <v>00:22:08</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -3117,8 +3155,12 @@
         <f t="shared" si="0"/>
         <v>00:22:27</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -3150,8 +3192,12 @@
         <f t="shared" si="0"/>
         <v>00:22:28</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -3183,8 +3229,12 @@
         <f t="shared" si="0"/>
         <v>00:22:32</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -3216,8 +3266,12 @@
         <f t="shared" si="0"/>
         <v>00:22:41</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -3249,8 +3303,12 @@
         <f t="shared" si="0"/>
         <v>00:23:07</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -3282,8 +3340,12 @@
         <f t="shared" si="0"/>
         <v>00:23:21</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3315,8 +3377,12 @@
         <f t="shared" si="0"/>
         <v>00:23:37</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -3346,8 +3412,12 @@
         <f t="shared" si="0"/>
         <v>00:23:40</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -3377,8 +3447,12 @@
         <f t="shared" si="0"/>
         <v>00:23:52</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -3408,8 +3482,12 @@
         <f t="shared" si="0"/>
         <v>00:24:00</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -3441,8 +3519,12 @@
         <f t="shared" si="0"/>
         <v>00:24:09</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K20" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -3472,8 +3554,12 @@
         <f t="shared" si="0"/>
         <v>00:24:36</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K21" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -3503,8 +3589,12 @@
         <f t="shared" si="0"/>
         <v>00:24:39</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K22" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -3534,8 +3624,12 @@
         <f t="shared" si="0"/>
         <v>00:24:42</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -3567,8 +3661,12 @@
         <f t="shared" si="0"/>
         <v>00:24:43</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
@@ -3598,8 +3696,12 @@
         <f t="shared" si="0"/>
         <v>00:24:49</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
@@ -3631,8 +3733,12 @@
         <f t="shared" si="0"/>
         <v>00:24:57</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>64</v>
       </c>
@@ -3662,8 +3768,12 @@
         <f t="shared" si="0"/>
         <v>00:25:07</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -3693,8 +3803,12 @@
         <f t="shared" si="0"/>
         <v>00:25:10</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
@@ -3724,8 +3838,12 @@
         <f t="shared" si="0"/>
         <v>00:25:19</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>70</v>
       </c>
@@ -3757,8 +3875,12 @@
         <f t="shared" si="0"/>
         <v>00:25:38</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
@@ -3790,8 +3912,12 @@
         <f t="shared" si="0"/>
         <v>00:25:46</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>76</v>
       </c>
@@ -3823,8 +3949,12 @@
         <f t="shared" si="0"/>
         <v>00:26:06</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>73</v>
       </c>
@@ -3854,8 +3984,12 @@
         <f t="shared" si="0"/>
         <v>00:26:10</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>80</v>
       </c>
@@ -3887,8 +4021,12 @@
         <f t="shared" si="0"/>
         <v>00:26:14</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K34" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
@@ -3920,8 +4058,12 @@
         <f t="shared" si="0"/>
         <v>00:26:17</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>83</v>
       </c>
@@ -3953,8 +4095,12 @@
         <f t="shared" si="0"/>
         <v>00:26:25</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K36" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>86</v>
       </c>
@@ -3984,8 +4130,12 @@
         <f t="shared" si="0"/>
         <v>00:26:26</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
@@ -4015,8 +4165,12 @@
         <f t="shared" si="0"/>
         <v>00:26:47</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K38" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>89</v>
       </c>
@@ -4048,8 +4202,12 @@
         <f t="shared" si="0"/>
         <v>00:26:50</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K39" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>53</v>
       </c>
@@ -4079,8 +4237,12 @@
         <f t="shared" si="0"/>
         <v>00:27:19</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K40" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>93</v>
       </c>
@@ -4110,8 +4272,12 @@
         <f t="shared" si="0"/>
         <v>00:27:22</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K41" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>95</v>
       </c>
@@ -4143,8 +4309,12 @@
         <f t="shared" si="0"/>
         <v>00:27:30</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K42" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>97</v>
       </c>
@@ -4174,8 +4344,12 @@
         <f t="shared" si="0"/>
         <v>00:27:53</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K43" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>99</v>
       </c>
@@ -4205,8 +4379,12 @@
         <f t="shared" si="0"/>
         <v>00:27:55</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K44" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>101</v>
       </c>
@@ -4236,8 +4414,12 @@
         <f t="shared" si="0"/>
         <v>00:28:07</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K45" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>103</v>
       </c>
@@ -4269,8 +4451,12 @@
         <f t="shared" si="0"/>
         <v>00:28:08</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K46" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -4302,8 +4488,12 @@
         <f t="shared" si="0"/>
         <v>00:28:09</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K47" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>107</v>
       </c>
@@ -4333,8 +4523,12 @@
         <f t="shared" si="0"/>
         <v>00:28:20</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K48" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>109</v>
       </c>
@@ -4366,8 +4560,12 @@
         <f t="shared" si="0"/>
         <v>00:28:26</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K49" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>111</v>
       </c>
@@ -4397,8 +4595,12 @@
         <f t="shared" si="0"/>
         <v>00:28:36</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K50" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>113</v>
       </c>
@@ -4428,8 +4630,12 @@
         <f t="shared" si="0"/>
         <v>00:28:39</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K51" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>115</v>
       </c>
@@ -4459,8 +4665,12 @@
         <f t="shared" si="0"/>
         <v>00:28:44</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K52" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>117</v>
       </c>
@@ -4490,8 +4700,12 @@
         <f t="shared" si="0"/>
         <v>00:28:50</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K53" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>118</v>
       </c>
@@ -4521,8 +4735,12 @@
         <f t="shared" si="0"/>
         <v>00:28:54</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K54" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>120</v>
       </c>
@@ -4552,8 +4770,12 @@
         <f t="shared" si="0"/>
         <v>00:28:59</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K55" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>122</v>
       </c>
@@ -4583,8 +4805,12 @@
         <f t="shared" si="0"/>
         <v>00:29:07</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K56" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>124</v>
       </c>
@@ -4614,8 +4840,12 @@
         <f t="shared" si="0"/>
         <v>00:29:15</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K57" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>126</v>
       </c>
@@ -4645,8 +4875,12 @@
         <f t="shared" si="0"/>
         <v>00:29:20</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K58" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>128</v>
       </c>
@@ -4676,8 +4910,12 @@
         <f t="shared" si="0"/>
         <v>00:29:24</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K59" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>130</v>
       </c>
@@ -4709,8 +4947,12 @@
         <f t="shared" si="0"/>
         <v>00:29:35</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K60" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>131</v>
       </c>
@@ -4742,8 +4984,12 @@
         <f t="shared" si="0"/>
         <v>00:29:48</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K61" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>133</v>
       </c>
@@ -4775,8 +5021,12 @@
         <f t="shared" si="0"/>
         <v>00:29:50</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K62" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>134</v>
       </c>
@@ -4806,8 +5056,12 @@
         <f t="shared" si="0"/>
         <v>00:29:59</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K63" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>136</v>
       </c>
@@ -4839,8 +5093,12 @@
         <f t="shared" si="0"/>
         <v>00:30:00</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K64" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>138</v>
       </c>
@@ -4870,8 +5128,12 @@
         <f t="shared" si="0"/>
         <v>00:30:08</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K65" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>140</v>
       </c>
@@ -4901,8 +5163,12 @@
         <f t="shared" si="0"/>
         <v>00:30:18</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K66" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>142</v>
       </c>
@@ -4929,11 +5195,15 @@
         <v>7</v>
       </c>
       <c r="J67" s="12" t="str">
-        <f t="shared" ref="J67:J110" si="1">TEXT(F67,"hh:mm:ss")</f>
+        <f t="shared" ref="J67:J110" si="2">TEXT(F67,"hh:mm:ss")</f>
         <v>00:30:28</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K67" t="str">
+        <f t="shared" ref="K67:K110" si="3">IF(LEFT(D67,1)="M","M","F")</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>144</v>
       </c>
@@ -4960,11 +5230,15 @@
         <v>19</v>
       </c>
       <c r="J68" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:30:29</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K68" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>146</v>
       </c>
@@ -4993,11 +5267,15 @@
         <v>8</v>
       </c>
       <c r="J69" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:30:38</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K69" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>105</v>
       </c>
@@ -5026,11 +5304,15 @@
         <v>8</v>
       </c>
       <c r="J70" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:31:02</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K70" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>149</v>
       </c>
@@ -5057,11 +5339,15 @@
         <v>9</v>
       </c>
       <c r="J71" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:31:08</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K71" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>151</v>
       </c>
@@ -5090,11 +5376,15 @@
         <v>20</v>
       </c>
       <c r="J72" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:31:26</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K72" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>126</v>
       </c>
@@ -5121,11 +5411,15 @@
         <v>10</v>
       </c>
       <c r="J73" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:31:29</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K73" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>155</v>
       </c>
@@ -5154,11 +5448,15 @@
         <v>7</v>
       </c>
       <c r="J74" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:31:35</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K74" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>157</v>
       </c>
@@ -5185,11 +5483,15 @@
         <v>21</v>
       </c>
       <c r="J75" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:31:36</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K75" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>159</v>
       </c>
@@ -5216,11 +5518,15 @@
         <v>8</v>
       </c>
       <c r="J76" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:31:44</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K76" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>161</v>
       </c>
@@ -5249,11 +5555,15 @@
         <v>22</v>
       </c>
       <c r="J77" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:31:47</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K77" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>163</v>
       </c>
@@ -5282,11 +5592,15 @@
         <v>11</v>
       </c>
       <c r="J78" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:31:50</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K78" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>164</v>
       </c>
@@ -5313,11 +5627,15 @@
         <v>9</v>
       </c>
       <c r="J79" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:31:51</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K79" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>165</v>
       </c>
@@ -5344,11 +5662,15 @@
         <v>10</v>
       </c>
       <c r="J80" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:31:56</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K80" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>167</v>
       </c>
@@ -5377,11 +5699,15 @@
         <v>11</v>
       </c>
       <c r="J81" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:32:03</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K81" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>169</v>
       </c>
@@ -5410,11 +5736,15 @@
         <v>10</v>
       </c>
       <c r="J82" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:32:34</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K82" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>126</v>
       </c>
@@ -5441,11 +5771,15 @@
         <v>12</v>
       </c>
       <c r="J83" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:32:40</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K83" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>173</v>
       </c>
@@ -5474,11 +5808,15 @@
         <v>4</v>
       </c>
       <c r="J84" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:32:48</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K84" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>175</v>
       </c>
@@ -5507,11 +5845,15 @@
         <v>9</v>
       </c>
       <c r="J85" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:32:56</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K85" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>53</v>
       </c>
@@ -5540,11 +5882,15 @@
         <v>23</v>
       </c>
       <c r="J86" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:32:56</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K86" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>177</v>
       </c>
@@ -5573,11 +5919,15 @@
         <v>5</v>
       </c>
       <c r="J87" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:33:12</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K87" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>179</v>
       </c>
@@ -5606,11 +5956,15 @@
         <v>11</v>
       </c>
       <c r="J88" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:33:22</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K88" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>180</v>
       </c>
@@ -5639,11 +5993,15 @@
         <v>1</v>
       </c>
       <c r="J89" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:33:30</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K89" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>182</v>
       </c>
@@ -5670,11 +6028,15 @@
         <v>12</v>
       </c>
       <c r="J90" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:33:32</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K90" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>184</v>
       </c>
@@ -5701,11 +6063,15 @@
         <v>12</v>
       </c>
       <c r="J91" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:33:58</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K91" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>186</v>
       </c>
@@ -5732,11 +6098,15 @@
         <v>17</v>
       </c>
       <c r="J92" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:33:59</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K92" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>188</v>
       </c>
@@ -5765,11 +6135,15 @@
         <v>10</v>
       </c>
       <c r="J93" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:34:06</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K93" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>190</v>
       </c>
@@ -5798,11 +6172,15 @@
         <v>24</v>
       </c>
       <c r="J94" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:34:08</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K94" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -5831,11 +6209,15 @@
         <v>13</v>
       </c>
       <c r="J95" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:34:13</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K95" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>194</v>
       </c>
@@ -5862,11 +6244,15 @@
         <v>13</v>
       </c>
       <c r="J96" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:34:16</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K96" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>196</v>
       </c>
@@ -5893,11 +6279,15 @@
         <v>13</v>
       </c>
       <c r="J97" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:36:01</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K97" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>198</v>
       </c>
@@ -5924,11 +6314,15 @@
         <v>2</v>
       </c>
       <c r="J98" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:36:09</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K98" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -5957,11 +6351,15 @@
         <v>25</v>
       </c>
       <c r="J99" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:36:21</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K99" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>165</v>
       </c>
@@ -5990,11 +6388,15 @@
         <v>11</v>
       </c>
       <c r="J100" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:36:41</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K100" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>182</v>
       </c>
@@ -6021,11 +6423,15 @@
         <v>14</v>
       </c>
       <c r="J101" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:37:28</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K101" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>204</v>
       </c>
@@ -6054,11 +6460,15 @@
         <v>14</v>
       </c>
       <c r="J102" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:38:01</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K102" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>206</v>
       </c>
@@ -6085,11 +6495,15 @@
         <v>3</v>
       </c>
       <c r="J103" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:40:23</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K103" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>208</v>
       </c>
@@ -6116,11 +6530,15 @@
         <v>15</v>
       </c>
       <c r="J104" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:41:05</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K104" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>210</v>
       </c>
@@ -6147,11 +6565,15 @@
         <v>4</v>
       </c>
       <c r="J105" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:41:09</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K105" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>212</v>
       </c>
@@ -6180,11 +6602,15 @@
         <v>15</v>
       </c>
       <c r="J106" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:42:32</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K106" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>215</v>
       </c>
@@ -6213,11 +6639,15 @@
         <v>26</v>
       </c>
       <c r="J107" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:42:33</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K107" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>216</v>
       </c>
@@ -6244,11 +6674,15 @@
         <v>12</v>
       </c>
       <c r="J108" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:42:58</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K108" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>73</v>
       </c>
@@ -6275,11 +6709,15 @@
         <v>14</v>
       </c>
       <c r="J109" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:42:59</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K109" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>219</v>
       </c>
@@ -6306,8 +6744,12 @@
         <v>16</v>
       </c>
       <c r="J110" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:43:07</v>
+      </c>
+      <c r="K110" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
       </c>
     </row>
   </sheetData>
